--- a/bots/crawl_ch/output/toilet_coop_2022-09-07.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-09-07.xlsx
@@ -531,36 +531,36 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6695141</t>
+          <t>6283679</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück</t>
+          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/prix-garantie-feuchtes-toilettenpapier-2x70-stueck/p/6695141</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-toilettenpapier-camomille-weiss-4-lagig-6-rollen/p/6283679</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>140ST</t>
+          <t>6Rol</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -569,85 +569,85 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.02/1ST</t>
+          <t>0.75/1Rol</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück 2.50 Schweizer Franken</t>
+          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6568452</t>
+          <t>6695141</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Super Soft Premium Mandel feucht</t>
+          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-mandel-feucht/p/6568452</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/prix-garantie-feuchtes-toilettenpapier-2x70-stueck/p/6695141</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>140ST</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>3.5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.06/1ST</t>
+          <t>0.02/1ST</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -672,12 +672,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Super Soft Premium Mandel feucht 2.95 Schweizer Franken</t>
+          <t>Prix Garantie feuchtes Toilettenpapier 2x70 Stück 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -750,50 +750,50 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4947421</t>
+          <t>6568452</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentuch Calendula Box</t>
+          <t>Super Soft Premium Mandel feucht</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/oecoplan-taschentuch-calendula-box/p/4947421</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-mandel-feucht/p/6568452</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>80ST</t>
+          <t>50ST</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.03/1ST</t>
+          <t>0.06/1ST</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -813,218 +813,220 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentuch Calendula Box 2.30 Schweizer Franken</t>
+          <t>Super Soft Premium Mandel feucht 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6873015</t>
+          <t>4947421</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
+          <t>Oecoplan Taschentuch Calendula Box</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-taschentuch-calendula-box/p/4947421</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12Rol</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>80ST</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>17</v>
+      </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hakle</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.91/1Rol</t>
+          <t>0.03/1ST</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
+          <t>Oecoplan Taschentuch Calendula Box 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6724076</t>
+          <t>6834305</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>40ST</t>
+          <t>192BLT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Duckies</t>
+          <t>Zewa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.07/1ST</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6834305</t>
+          <t>6724076</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>192BLT</t>
+          <t>40ST</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Zewa</t>
+          <t>Duckies</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.07/1ST</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1099,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1156,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1211,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1284,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1357,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1374,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1418,7 +1420,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1428,7 +1430,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1487,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1544,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1617,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1690,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1763,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1836,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1909,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1982,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1999,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/taschentuecher-strong-10x10-stueck/p/4687972</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/taschentuecher-strong-10x10-stueck/p/4687972</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2043,7 +2045,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2053,7 +2055,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2126,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2199,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -2254,50 +2256,50 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6868354</t>
+          <t>3874909</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco</t>
+          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-papiertaschentuecher-special-edition-calendula-30x10-stueck/p/3874909</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>30ST</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.33/1ST</t>
+          <t>0.12/1ST</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2307,7 +2309,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2322,55 +2324,55 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
+          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück 20% Aktion 3.65 Schweizer Franken statt 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3874909</t>
+          <t>6868354</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück</t>
+          <t>Tempo Bamboo Eco</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-papiertaschentuecher-special-edition-calendula-30x10-stueck/p/3874909</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>30ST</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.12/1ST</t>
+          <t>0.33/1ST</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2380,7 +2382,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2395,12 +2397,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück 20% Aktion 3.65 Schweizer Franken statt 4.60 Schweizer Franken</t>
+          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2473,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2544,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2617,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
@@ -2688,7 +2690,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-09-07 07:14:15</t>
+          <t>2022-09-07 21:01:38</t>
         </is>
       </c>
     </row>
